--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1176,6 +1176,21 @@
 - Name of specialized Japanese by romaji 
 - Meaning of specialized Japanese
 </t>
+  </si>
+  <si>
+    <t>"Hội thoại" option is displayed</t>
+  </si>
+  <si>
+    <t>"Câu ví dụ" option is displayed</t>
+  </si>
+  <si>
+    <t>"Video" option is displayed</t>
+  </si>
+  <si>
+    <t>"Ngữ pháp" option is displayed</t>
+  </si>
+  <si>
+    <t>"Tiếng Nhật chuyên ngành" option is displayed</t>
   </si>
 </sst>
 </file>
@@ -3172,6 +3187,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3192,24 +3225,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6380,14 +6395,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6402,12 +6417,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6419,12 +6434,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6433,15 +6448,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6450,11 +6465,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6477,10 +6492,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6498,10 +6513,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6515,8 +6530,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6524,8 +6539,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6533,8 +6548,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6542,8 +6557,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6551,8 +6566,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6560,8 +6575,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6569,6 +6584,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6576,12 +6597,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6597,8 +6612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7012,7 +7027,9 @@
       <c r="K18" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="62" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="108.75" customHeight="1">
       <c r="A19" s="47"/>
@@ -7112,7 +7129,9 @@
       <c r="K22" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="L22" s="62"/>
+      <c r="L22" s="62" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="121.5">
       <c r="A23" s="47"/>
@@ -7212,7 +7231,9 @@
       <c r="K26" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="62" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="108">
       <c r="A27" s="47"/>
@@ -7312,7 +7333,9 @@
       <c r="K30" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="L30" s="62" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="137.25" customHeight="1">
       <c r="A31" s="47"/>
@@ -7412,7 +7435,9 @@
       <c r="K34" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="62" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="148.5">
       <c r="A35" s="47"/>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -279,8 +284,8 @@
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$29</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$50</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$75</definedName>
+    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -305,18 +310,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1115,14 +1120,6 @@
     <t>User choose "Video" option</t>
   </si>
   <si>
-    <t xml:space="preserve">Display “video information” screen that contains the information of chosen video with these elements:
-- Serial number
-- Name of video by hiragana 
-- Name of video by romaji 
-- Meaning of video
-</t>
-  </si>
-  <si>
     <t>Search grammar</t>
   </si>
   <si>
@@ -1192,26 +1189,34 @@
   <si>
     <t>"Tiếng Nhật chuyên ngành" option is displayed</t>
   </si>
+  <si>
+    <t xml:space="preserve">Display “video information” screen that contains the information of chosen video with these elements:
+- Serial number
+- Name of video by hiragana 
+- Name of video by romaji 
+- Link of video
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="175" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1223,7 +1228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2520,7 +2525,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2562,15 +2567,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2728,7 +2733,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2744,7 +2749,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2823,19 +2828,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2845,8 +2850,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2864,7 +2869,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -2941,7 +2946,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,6 +3192,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3204,27 +3230,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3542,6 +3547,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6129,7 +6137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6164,7 +6172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6375,8 +6383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6395,14 +6403,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6417,12 +6425,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6434,12 +6442,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6448,15 +6456,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6465,11 +6473,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6492,10 +6500,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6513,10 +6521,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6530,8 +6538,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6539,8 +6547,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6548,8 +6556,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6557,8 +6565,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6566,8 +6574,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6575,8 +6583,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6584,12 +6592,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6597,6 +6599,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6612,8 +6620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6864,7 +6872,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -7028,7 +7036,7 @@
         <v>155</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="108.75" customHeight="1">
@@ -7130,7 +7138,7 @@
         <v>162</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="121.5">
@@ -7232,7 +7240,7 @@
         <v>169</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="108">
@@ -7260,19 +7268,19 @@
         <v>152</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="63"/>
       <c r="F28" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -7285,7 +7293,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="63"/>
@@ -7313,7 +7321,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
@@ -7331,17 +7339,17 @@
         <v>37</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="137.25" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="63"/>
@@ -7362,19 +7370,19 @@
         <v>152</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="63"/>
       <c r="F32" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7387,7 +7395,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="63"/>
@@ -7415,7 +7423,7 @@
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="63"/>
@@ -7433,17 +7441,17 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="148.5">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="63"/>
@@ -7464,7 +7472,7 @@
         <v>152</v>
       </c>
       <c r="L35" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -284,8 +279,8 @@
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$29</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$50</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$75</definedName>
+    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -310,18 +305,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$41</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -487,7 +482,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1026,13 +1021,6 @@
     <t>Searcharea</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items:
-+ "Searcharea" textbox
-+ "SearchOption" drop-down list
-+ "Search button
-</t>
-  </si>
-  <si>
     <t>Input information  in "Searcharea" textbox</t>
   </si>
   <si>
@@ -1068,134 +1056,118 @@
     <t>User choose "Câu ví dụ" option</t>
   </si>
   <si>
-    <t xml:space="preserve">Display “sentences information” screen that contains the information of chosen sentences with these elements:
-- Serial number
-- Name of sentences by hiragana 
-- Name of sentences by romaji 
-- Meaning of sentences
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Search conversation</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>1.2.3.2</t>
+  </si>
+  <si>
+    <t>1.2.3.3</t>
+  </si>
+  <si>
+    <t>User choose "Hội thoại" option</t>
+  </si>
+  <si>
+    <t>Search video</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.4.1</t>
+  </si>
+  <si>
+    <t>1.2.4.2</t>
+  </si>
+  <si>
+    <t>1.2.4.3</t>
+  </si>
+  <si>
+    <t>User choose "Video" option</t>
+  </si>
+  <si>
+    <t>Search grammar</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.5.1</t>
+  </si>
+  <si>
+    <t>1.2.5.2</t>
+  </si>
+  <si>
+    <t>1.2.5.3</t>
+  </si>
+  <si>
+    <t>User choose "Ngữ pháp" option</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>Search specialized Japanese</t>
+  </si>
+  <si>
+    <t>1.2.6.1</t>
+  </si>
+  <si>
+    <t>1.2.6.2</t>
+  </si>
+  <si>
+    <t>1.2.6.3</t>
+  </si>
+  <si>
+    <t>Input information and choose the option's search</t>
+  </si>
+  <si>
+    <t>User choose "Tiếng Nhật chuyên ngành" option</t>
+  </si>
+  <si>
+    <t>"Hội thoại" option is displayed</t>
+  </si>
+  <si>
+    <t>"Câu ví dụ" option is displayed</t>
+  </si>
+  <si>
+    <t>"Video" option is displayed</t>
+  </si>
+  <si>
+    <t>"Ngữ pháp" option is displayed</t>
+  </si>
+  <si>
+    <t>"Tiếng Nhật chuyên ngành" option is displayed</t>
+  </si>
+  <si>
+    <t>-Display “sentences information” screen that contains the information of chosen sentences
+- Information of chosen sentences is left-aligned
+- Keyword is highlighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Display “sentences information” screen that contains the information of chosen sentences
+- Information of chosen sentences is left-aligned
+- Keyword is highlighted
 </t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>Search conversation</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
-    <t>1.2.3.3</t>
-  </si>
-  <si>
-    <t>User choose "Hội thoại" option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display “conversation information” screen that contains the information of chosen conversation with these elements:
-- Serial number
-- Name of conversation by hiragana 
-- Name of conversation by romaji 
-- Meaning of conversation
+    <t xml:space="preserve">-Display “sentences information” screen that contains the information of chosen sentences
+- Information of chosen sentences is left-aligned
+- Keyword is highlighted
 </t>
   </si>
   <si>
-    <t>Search video</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.4.1</t>
-  </si>
-  <si>
-    <t>1.2.4.2</t>
-  </si>
-  <si>
-    <t>1.2.4.3</t>
-  </si>
-  <si>
-    <t>User choose "Video" option</t>
-  </si>
-  <si>
-    <t>Search grammar</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1.2.5.1</t>
-  </si>
-  <si>
-    <t>1.2.5.2</t>
-  </si>
-  <si>
-    <t>1.2.5.3</t>
-  </si>
-  <si>
-    <t>User choose "Ngữ pháp" option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display “grammar information” screen that contains the information of chosen grammar with these elements:
-- Serial number
-- Name of grammar by hiragana 
-- Name of grammar by romaji 
-- Meaning of grammar
-</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>Search specialized Japanese</t>
-  </si>
-  <si>
-    <t>1.2.6.1</t>
-  </si>
-  <si>
-    <t>1.2.6.2</t>
-  </si>
-  <si>
-    <t>1.2.6.3</t>
-  </si>
-  <si>
-    <t>Input information and choose the option's search</t>
-  </si>
-  <si>
-    <t>User choose "Tiếng Nhật chuyên ngành" option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display “specialized Japanese information” screen that contains the information of chosen specialized Japanese with these elements:
-- Serial number
-- Name of specialized Japanese by hiragana 
-- Name of specialized Japanese by romaji 
-- Meaning of specialized Japanese
-</t>
-  </si>
-  <si>
-    <t>"Hội thoại" option is displayed</t>
-  </si>
-  <si>
-    <t>"Câu ví dụ" option is displayed</t>
-  </si>
-  <si>
-    <t>"Video" option is displayed</t>
-  </si>
-  <si>
-    <t>"Ngữ pháp" option is displayed</t>
-  </si>
-  <si>
-    <t>"Tiếng Nhật chuyên ngành" option is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display “video information” screen that contains the information of chosen video with these elements:
-- Serial number
-- Name of video by hiragana 
-- Name of video by romaji 
-- Link of video
-</t>
+    <t>- Display full item (Seach area, Drop-down list, Search button)
+- Text's color is black</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 200 characters</t>
   </si>
 </sst>
 </file>
@@ -1203,20 +1175,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="175" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1228,7 +1200,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2525,7 +2497,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2567,15 +2539,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2733,7 +2705,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2749,7 +2721,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2828,19 +2800,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2850,8 +2822,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2869,7 +2841,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -2946,7 +2918,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6137,7 +6109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6172,7 +6144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6383,7 +6355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
@@ -6620,17 +6592,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="37" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9" style="37"/>
+    <col min="4" max="4" width="10.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="37" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="37" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="37" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="37" customWidth="1"/>
@@ -6789,7 +6761,7 @@
       <c r="K8" s="52"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" s="44" customFormat="1" ht="54">
+    <row r="9" spans="1:12" s="44" customFormat="1" ht="65.25" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
@@ -6817,7 +6789,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="67.5">
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="48.75" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6842,7 +6814,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
@@ -6872,7 +6844,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6903,10 +6875,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="62" t="s">
         <v>146</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="117" customHeight="1">
@@ -6919,7 +6891,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6931,13 +6903,13 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="L14" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1">
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
@@ -6947,7 +6919,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6959,10 +6931,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>152</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6974,7 +6946,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6983,7 +6955,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="39.75" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
@@ -7005,13 +6977,13 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
@@ -7021,7 +6993,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7033,13 +7005,13 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="108.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="69" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
@@ -7049,7 +7021,7 @@
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7061,22 +7033,22 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -7085,11 +7057,11 @@
       <c r="K20" s="52"/>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
@@ -7107,23 +7079,23 @@
         <v>37</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7135,23 +7107,23 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="121.5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="78.75" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
       <c r="F23" s="56"/>
       <c r="G23" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7163,22 +7135,22 @@
         <v>37</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="63"/>
       <c r="F24" s="51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7191,7 +7163,7 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="63"/>
@@ -7209,23 +7181,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="63"/>
       <c r="F26" s="56"/>
       <c r="G26" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7237,23 +7209,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="108">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="78" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="63"/>
       <c r="F27" s="56"/>
       <c r="G27" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7265,22 +7237,22 @@
         <v>37</v>
       </c>
       <c r="K27" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>190</v>
+        <v>151</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="63"/>
       <c r="F28" s="51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -7293,7 +7265,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="63"/>
@@ -7311,23 +7283,23 @@
         <v>37</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7339,23 +7311,23 @@
         <v>37</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="137.25" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" ht="107.25" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="63"/>
       <c r="F31" s="56"/>
       <c r="G31" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>35</v>
@@ -7367,22 +7339,22 @@
         <v>37</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>176</v>
+        <v>151</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="63"/>
       <c r="F32" s="51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7395,7 +7367,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="63"/>
@@ -7413,23 +7385,23 @@
         <v>37</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="63"/>
       <c r="F34" s="56"/>
       <c r="G34" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7441,23 +7413,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="44" customFormat="1" ht="148.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="63"/>
       <c r="F35" s="56"/>
       <c r="G35" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7469,10 +7441,10 @@
         <v>37</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L35" s="56" t="s">
-        <v>184</v>
+        <v>151</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -1167,7 +1167,7 @@
 - Text's color is black</t>
   </si>
   <si>
-    <t>Word that user input is displayed and user cannot input more than 200 characters</t>
+    <t>Word that user input is displayed and user cannot input more than 255 characters</t>
   </si>
 </sst>
 </file>
@@ -3164,6 +3164,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3184,24 +3202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6375,14 +6375,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6397,12 +6397,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6414,12 +6414,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6428,15 +6428,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6445,11 +6445,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6472,10 +6472,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6493,10 +6493,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6510,8 +6510,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6519,8 +6519,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6528,8 +6528,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6537,8 +6537,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6546,8 +6546,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6555,8 +6555,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6564,6 +6564,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6571,12 +6577,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6592,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -995,9 +995,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>Word that user input is displayed and user cannot input more than 255 characters</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3164,6 +3164,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3181,27 +3202,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6355,8 +6355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6375,14 +6375,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6397,12 +6397,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6414,12 +6414,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6428,28 +6428,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6472,10 +6472,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6491,12 +6491,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6505,13 +6505,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6519,8 +6519,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6528,8 +6528,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6537,8 +6537,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6546,8 +6546,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6555,8 +6555,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6564,12 +6564,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6577,6 +6571,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6592,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6786,7 +6786,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="48.75" customHeight="1">
@@ -6814,7 +6814,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
@@ -6844,7 +6844,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6863,7 +6863,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6875,10 +6875,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="62" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="117" customHeight="1">
@@ -6891,7 +6891,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6903,10 +6903,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
@@ -6919,7 +6919,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6931,10 +6931,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>151</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6946,7 +6946,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6965,7 +6965,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6977,10 +6977,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
@@ -6993,7 +6993,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7005,23 +7005,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="69" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7033,22 +7033,22 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -7061,13 +7061,13 @@
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
       <c r="F21" s="56"/>
       <c r="G21" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7079,23 +7079,23 @@
         <v>37</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7107,23 +7107,23 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="78.75" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
       <c r="F23" s="56"/>
       <c r="G23" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7135,22 +7135,22 @@
         <v>37</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L23" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="63"/>
       <c r="F24" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7163,13 +7163,13 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="63"/>
       <c r="F25" s="56"/>
       <c r="G25" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7181,23 +7181,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="63"/>
       <c r="F26" s="56"/>
       <c r="G26" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7209,23 +7209,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="78" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="63"/>
       <c r="F27" s="56"/>
       <c r="G27" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7237,22 +7237,22 @@
         <v>37</v>
       </c>
       <c r="K27" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="63"/>
       <c r="F28" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -7265,13 +7265,13 @@
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="63"/>
       <c r="F29" s="56"/>
       <c r="G29" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>35</v>
@@ -7283,23 +7283,23 @@
         <v>37</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7311,23 +7311,23 @@
         <v>37</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="107.25" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="63"/>
       <c r="F31" s="56"/>
       <c r="G31" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>35</v>
@@ -7339,22 +7339,22 @@
         <v>37</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L31" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="63"/>
       <c r="F32" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7367,13 +7367,13 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="63"/>
       <c r="F33" s="56"/>
       <c r="G33" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>35</v>
@@ -7385,23 +7385,23 @@
         <v>37</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="63"/>
       <c r="F34" s="56"/>
       <c r="G34" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7413,23 +7413,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="63"/>
       <c r="F35" s="56"/>
       <c r="G35" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7441,10 +7441,10 @@
         <v>37</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L35" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">
@@ -8373,7 +8373,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
